--- a/ResultadoEleicoesDistritos/R. A. AÇORES_LAJES DAS FLORES.xlsx
+++ b/ResultadoEleicoesDistritos/R. A. AÇORES_LAJES DAS FLORES.xlsx
@@ -597,64 +597,64 @@
         <v>373</v>
       </c>
       <c r="H2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="T2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
